--- a/output/fit_clients/fit_round_254.xlsx
+++ b/output/fit_clients/fit_round_254.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1891469541.735773</v>
+        <v>1535173174.406975</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1072028952596277</v>
+        <v>0.1107829206339013</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02914505539926661</v>
+        <v>0.03429299574126879</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>945734751.893167</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1820871935.229347</v>
+        <v>2589339773.969934</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1683177394539538</v>
+        <v>0.1637201395714109</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04355830371551644</v>
+        <v>0.03802011362617289</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>910435979.9242594</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5247451723.068693</v>
+        <v>4254440047.180592</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1173306938654365</v>
+        <v>0.1263023729838048</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02348242079352799</v>
+        <v>0.03319547314025124</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>92</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2623725964.074873</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4221091705.269516</v>
+        <v>2853843394.159224</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1057595164162216</v>
+        <v>0.092318427026746</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03077665041410737</v>
+        <v>0.03441273661939475</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>100</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2110545841.700692</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1984942753.664652</v>
+        <v>2331262211.566626</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1263834153512862</v>
+        <v>0.106246632138919</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05213258886818983</v>
+        <v>0.04206159206857576</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>41</v>
-      </c>
-      <c r="J6" t="n">
-        <v>992471408.0521185</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1945298710.631262</v>
+        <v>2578550690.322092</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08132621335432776</v>
+        <v>0.0903426566222211</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04459262464926441</v>
+        <v>0.03266776193880718</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>80</v>
-      </c>
-      <c r="J7" t="n">
-        <v>972649421.7006732</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3034463712.562394</v>
+        <v>2873529205.200308</v>
       </c>
       <c r="F8" t="n">
-        <v>0.198628026450403</v>
+        <v>0.1534018630992075</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02104596888009833</v>
+        <v>0.02690531931694353</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>81</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1517231917.311859</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1788584110.119566</v>
+        <v>1554881703.482546</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1660100606543322</v>
+        <v>0.1920932728626314</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03563561012278016</v>
+        <v>0.02304624183024586</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>894292110.9956609</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4272488107.477255</v>
+        <v>5111431223.11113</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2115808456348334</v>
+        <v>0.175206697703494</v>
       </c>
       <c r="G10" t="n">
-        <v>0.053847850461839</v>
+        <v>0.03666797815966569</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>107</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2136244096.716435</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3953948810.49717</v>
+        <v>2844978202.040843</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1603556483120847</v>
+        <v>0.1530298298081269</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04394958138451784</v>
+        <v>0.03547944994222035</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>105</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1976974414.752347</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3161652149.24573</v>
+        <v>2809992401.690658</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1444868724595423</v>
+        <v>0.1828106800832864</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05270527342789489</v>
+        <v>0.03411671546384178</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>85</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1580826107.445191</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4647106420.465298</v>
+        <v>4614316800.082104</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07295261937350017</v>
+        <v>0.08829919491814134</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02754655293954253</v>
+        <v>0.02762130329623733</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>85</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2323553232.283346</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2786285468.36665</v>
+        <v>3194361844.164754</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1266663583887927</v>
+        <v>0.1337862011104838</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03622673598649348</v>
+        <v>0.03938219734696428</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>84</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1393142784.092106</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1545618410.430305</v>
+        <v>1718133117.429985</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09746690136110267</v>
+        <v>0.07119858459323683</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04156925279449402</v>
+        <v>0.04899809772033036</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>772809301.051881</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2686722767.710405</v>
+        <v>2396009909.628728</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1124177996861341</v>
+        <v>0.08523168514963868</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05141901598350383</v>
+        <v>0.03773509966118051</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>47</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1343361397.978882</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3689705347.336559</v>
+        <v>3287574283.87683</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1321636493640109</v>
+        <v>0.1461859818281184</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03944829158897616</v>
+        <v>0.04384181401443865</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>74</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1844852723.60894</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2914766826.673247</v>
+        <v>2592691062.467113</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1226320954352959</v>
+        <v>0.173792411228568</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02683335370312842</v>
+        <v>0.03415486212091663</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>83</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1457383449.737463</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1174013518.003919</v>
+        <v>880612436.3875369</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1715879929448798</v>
+        <v>0.1423284227007432</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02278302802992826</v>
+        <v>0.02751125483655049</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>587006830.5720224</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2770156467.264141</v>
+        <v>2124013351.637961</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1415895897526725</v>
+        <v>0.1415402579484666</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03017043896163421</v>
+        <v>0.02790384613271387</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>37</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1385078177.944389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2019232930.768802</v>
+        <v>2697056485.052122</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09505593906476781</v>
+        <v>0.07581317047111177</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02986021984536599</v>
+        <v>0.04514183527232484</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>19</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1009616499.490205</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2824703386.556256</v>
+        <v>3042205878.575561</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1373293727561702</v>
+        <v>0.1011006373220829</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04136958185937491</v>
+        <v>0.04668716614182077</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>70</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1412351765.301777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1138134781.050422</v>
+        <v>1162639364.111853</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1326645773248412</v>
+        <v>0.1501508589080563</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05342157198601438</v>
+        <v>0.03748920526903845</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>569067437.4252125</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3307929494.650696</v>
+        <v>3940743784.069932</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1393252220882572</v>
+        <v>0.1451176952253092</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03475803304722191</v>
+        <v>0.03092806139260502</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>74</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1653964761.858782</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1149350203.95956</v>
+        <v>1268770926.83278</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1026015168584734</v>
+        <v>0.08463025289873953</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02252916815025888</v>
+        <v>0.01926719943474263</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>574675131.5882959</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>906621582.008958</v>
+        <v>1410099745.727304</v>
       </c>
       <c r="F26" t="n">
-        <v>0.111631178818534</v>
+        <v>0.1138207898715998</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03252457419198252</v>
+        <v>0.02779173044333669</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>453310740.1968675</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3284100779.540884</v>
+        <v>4582238581.389791</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1360631997503509</v>
+        <v>0.1179989144224699</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02626840572854873</v>
+        <v>0.02123095369756831</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>58</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1642050435.5002</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2519340937.518343</v>
+        <v>3480229600.511043</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1141485478544392</v>
+        <v>0.1464900984566094</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03277536976502777</v>
+        <v>0.03394496155797984</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>82</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1259670438.256829</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4370874746.23005</v>
+        <v>3808692155.430233</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1370521474797847</v>
+        <v>0.101928533669527</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04123250114389088</v>
+        <v>0.03998450601938071</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>112</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2185437364.242553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1934587181.416794</v>
+        <v>2385377685.997643</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09195872250196702</v>
+        <v>0.1202211846829037</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0366600350402004</v>
+        <v>0.03409560490520958</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>967293620.6859033</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>921609730.3237044</v>
+        <v>1001389110.195164</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07205730996837303</v>
+        <v>0.1016880850861075</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04020962940637346</v>
+        <v>0.04709617589974743</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>460804882.1486703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1773891590.822765</v>
+        <v>1484622607.3643</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08534352966975781</v>
+        <v>0.1094694110759566</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03201707793974682</v>
+        <v>0.03322009458015145</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>886945920.4906085</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2808737819.110358</v>
+        <v>1931903977.279474</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1708190564584914</v>
+        <v>0.1955215561834178</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05541271511596083</v>
+        <v>0.0417280640007608</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>78</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1404368921.450905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1348818978.108018</v>
+        <v>1570355603.404085</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1090209156253974</v>
+        <v>0.122173723341516</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02364121210963224</v>
+        <v>0.02143362452615183</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>674409469.665773</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1033079192.822575</v>
+        <v>1080889516.863028</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1112633303041771</v>
+        <v>0.07581432364714205</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03030767975432357</v>
+        <v>0.04026294973359434</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>516539607.7243149</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3047070645.349243</v>
+        <v>2834981696.311526</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1777714907770958</v>
+        <v>0.1759942492251532</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02656537837693077</v>
+        <v>0.02759976224939484</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>63</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1523535300.829293</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2522184757.773461</v>
+        <v>2538843935.2145</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07320809917317143</v>
+        <v>0.08459143095291322</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03139659534080019</v>
+        <v>0.0346959409371283</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>66</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1261092478.026784</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2145432150.305516</v>
+        <v>1356668531.80425</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08205329900571171</v>
+        <v>0.08430114505693752</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03010290320181814</v>
+        <v>0.03185935528224094</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1072716033.229479</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1998693375.955551</v>
+        <v>1810086644.18145</v>
       </c>
       <c r="F39" t="n">
-        <v>0.158362776773391</v>
+        <v>0.1688418793622068</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03040285474224688</v>
+        <v>0.02388799815497091</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>999346682.6912992</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1127356634.430104</v>
+        <v>1240871523.861754</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1414328070423582</v>
+        <v>0.1285811316791399</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05904005197887786</v>
+        <v>0.04959047266747133</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>563678376.6956288</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1920344924.812486</v>
+        <v>2101914580.101074</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1111137329279484</v>
+        <v>0.1616111560318797</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02902649576011309</v>
+        <v>0.03611284820338105</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>61</v>
-      </c>
-      <c r="J41" t="n">
-        <v>960172544.4710494</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3195918459.341169</v>
+        <v>3129347016.628075</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09850660968031598</v>
+        <v>0.1000001750239635</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04272507046234409</v>
+        <v>0.03182374641850769</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>88</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1597959203.576832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2033712335.536656</v>
+        <v>2123473957.159874</v>
       </c>
       <c r="F43" t="n">
-        <v>0.197148675802175</v>
+        <v>0.1564326680035171</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02415231012824845</v>
+        <v>0.01808594872061869</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>90</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1016856263.31696</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2049918415.733314</v>
+        <v>1678037601.001352</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07828499329014757</v>
+        <v>0.08303752076272473</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02414036497605459</v>
+        <v>0.0257484355154123</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1024959324.155506</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1970673773.92994</v>
+        <v>2397509809.064785</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1900887201990571</v>
+        <v>0.1451076297209802</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03833061950193301</v>
+        <v>0.05071123246718031</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>985336874.870266</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5160578097.142535</v>
+        <v>4314060464.706929</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1723120361320682</v>
+        <v>0.1493490382268721</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03834294028657684</v>
+        <v>0.04400521981245104</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>90</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2580289084.579052</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4615111049.432842</v>
+        <v>4405003101.013883</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2012992678251003</v>
+        <v>0.1445317169029707</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03638870189704747</v>
+        <v>0.05720840960511353</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>68</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2307555558.703898</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3924004803.369551</v>
+        <v>3423104606.196805</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07766858941442904</v>
+        <v>0.08075996613678307</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03460861613501605</v>
+        <v>0.03464533278581953</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>82</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1962002440.464312</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1350581836.82709</v>
+        <v>1834099647.939185</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1962431447435509</v>
+        <v>0.1589385732691854</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04408931772670117</v>
+        <v>0.04486508714486917</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>675290973.6700009</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4078327143.04846</v>
+        <v>2560968646.300906</v>
       </c>
       <c r="F50" t="n">
-        <v>0.113840853075336</v>
+        <v>0.1603144102410325</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04378958552594267</v>
+        <v>0.03386827920940626</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>87</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2039163554.631522</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1008940952.840875</v>
+        <v>1299321814.559022</v>
       </c>
       <c r="F51" t="n">
-        <v>0.118322026739597</v>
+        <v>0.1241226574529555</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04006254738452691</v>
+        <v>0.05447825503816929</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>504470558.9380029</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5004971059.141802</v>
+        <v>5060431015.754128</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1128821443789561</v>
+        <v>0.1143038432720067</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05827933917928628</v>
+        <v>0.03727024710859946</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>105</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2502485526.895986</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3271323146.63879</v>
+        <v>2929449616.015821</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1805307094508178</v>
+        <v>0.2025123646535136</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02776799348529172</v>
+        <v>0.03419805181512648</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>72</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1635661586.982702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3004987976.440892</v>
+        <v>3973342591.528364</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1023213288225039</v>
+        <v>0.1421488832192761</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04979662653609369</v>
+        <v>0.0449716115881252</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>83</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1502493974.150471</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4057708308.433421</v>
+        <v>4360084571.059411</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1615171936543668</v>
+        <v>0.1892358275510918</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02416143107590862</v>
+        <v>0.02844169013562334</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2028854131.690988</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1306628873.861268</v>
+        <v>1437775070.593854</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1522771640093483</v>
+        <v>0.1028975280950136</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05830585627090828</v>
+        <v>0.05449818064530379</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>653314507.852558</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2799570520.705787</v>
+        <v>3000809644.021997</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1624467230638552</v>
+        <v>0.1232799123845772</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02550148348152005</v>
+        <v>0.02440940270419172</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>81</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1399785247.922107</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1705844340.509179</v>
+        <v>1313215467.787811</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1240980627826759</v>
+        <v>0.1746494341790852</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03531471700840718</v>
+        <v>0.03510006701594112</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>852922182.5899663</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3662151215.654871</v>
+        <v>3686293134.205553</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1027181005720541</v>
+        <v>0.08866412919157654</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03930908248717158</v>
+        <v>0.04449810041875923</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>71</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1831075600.072295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3697047066.049177</v>
+        <v>3315551038.072463</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2019432123948694</v>
+        <v>0.1948020214068851</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03068262624219538</v>
+        <v>0.03349286680400503</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>80</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1848523676.484442</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2374973637.918251</v>
+        <v>3170588659.314753</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1607461186942581</v>
+        <v>0.1304939692881706</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02118724257612519</v>
+        <v>0.02004773662924233</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>88</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1187486858.362981</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1776907302.733092</v>
+        <v>1945010086.020319</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1850073009178967</v>
+        <v>0.1354321783583239</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04625575537473452</v>
+        <v>0.03120989403063473</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>888453675.9732674</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4872837504.860746</v>
+        <v>4871892503.851008</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07302786074131652</v>
+        <v>0.09078511027928542</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02932796573941732</v>
+        <v>0.03768729765263004</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>73</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2436418775.861066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4898877545.836642</v>
+        <v>4511579366.495667</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1918032370368658</v>
+        <v>0.1564030015250799</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02574612941967772</v>
+        <v>0.03365279605852407</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>79</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2449438871.999805</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5798068942.703275</v>
+        <v>3796391007.44815</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1254831655331951</v>
+        <v>0.1583775721062194</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02492523471745791</v>
+        <v>0.02709565666552893</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>91</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2899034382.640501</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3902610163.769352</v>
+        <v>5671026114.614562</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1339465508576744</v>
+        <v>0.1037509615994525</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03507212146603793</v>
+        <v>0.03096531588685976</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>74</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1951305050.221855</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2324310699.61194</v>
+        <v>3117964531.913122</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09149247595549947</v>
+        <v>0.09784244020194463</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04918805756473272</v>
+        <v>0.04158155848267203</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>82</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1162155425.29921</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5925056395.554803</v>
+        <v>5993068637.714289</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1543092096302186</v>
+        <v>0.1534899010856532</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05057633837051777</v>
+        <v>0.04974404175677245</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>83</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2962528310.213797</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1779902643.995351</v>
+        <v>2382484891.350196</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1443186190773157</v>
+        <v>0.1393345922110341</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05675068971002781</v>
+        <v>0.03738217301198885</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>889951298.4649358</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3088845454.947471</v>
+        <v>2614869791.826013</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07902911399399014</v>
+        <v>0.06919272148239494</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0387565792939964</v>
+        <v>0.04976861072642175</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>72</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1544422710.218004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5269019334.821701</v>
+        <v>4623325259.163871</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1259277196846164</v>
+        <v>0.1451424806291994</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0307416689564945</v>
+        <v>0.02950592881233347</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>92</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2634509793.22848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1983580678.156969</v>
+        <v>1551207960.170256</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09274265346965528</v>
+        <v>0.1057135743769544</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03767548595343227</v>
+        <v>0.05281700648825483</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>991790288.0618958</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2864974178.581652</v>
+        <v>3259260049.509294</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08722109572890363</v>
+        <v>0.1041175265640603</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05149105103619474</v>
+        <v>0.04519026473327975</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>97</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1432487097.634734</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2852359498.46876</v>
+        <v>3902273760.182277</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1183232136952381</v>
+        <v>0.116986120582879</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03069726275264674</v>
+        <v>0.02887334457088243</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>86</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1426179827.384674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1978376469.425596</v>
+        <v>2303481607.845912</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1417300664866337</v>
+        <v>0.1557402352230345</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02671493466858428</v>
+        <v>0.03381716246956615</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>989188200.8879737</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4945573746.198071</v>
+        <v>3346717605.387195</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09849223487167405</v>
+        <v>0.1100299036361086</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02795213649123699</v>
+        <v>0.02568656040542843</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2472786897.423483</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1956272553.593064</v>
+        <v>1778323101.265226</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1580315012199283</v>
+        <v>0.126697754720595</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02758165170794068</v>
+        <v>0.0262460416031932</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>978136331.886703</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3914179952.083689</v>
+        <v>3903440692.99959</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1194850894351125</v>
+        <v>0.0928788376114585</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04712784906598399</v>
+        <v>0.04290621483778471</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>88</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1957089947.903892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1433158961.360661</v>
+        <v>1420280278.368533</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1525161222016024</v>
+        <v>0.1688635969985439</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02754256765003213</v>
+        <v>0.02625933985868801</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>716579503.2018492</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4086102045.503803</v>
+        <v>3608259674.520788</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1002607406417055</v>
+        <v>0.08324022382343553</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02574345041714131</v>
+        <v>0.02865141629182773</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>53</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2043051026.491673</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4235534231.139155</v>
+        <v>5125754621.58775</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09043887709168284</v>
+        <v>0.09673221144679442</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02100459257447829</v>
+        <v>0.03108574981257513</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>57</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2117767087.495609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4853525227.777521</v>
+        <v>5469453639.477464</v>
       </c>
       <c r="F82" t="n">
-        <v>0.149707432580561</v>
+        <v>0.14492076991348</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02052858145732234</v>
+        <v>0.02068341109282118</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>90</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2426762605.979806</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2436073237.800292</v>
+        <v>2165302773.454859</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1116052060537322</v>
+        <v>0.1247184767739529</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03419605568363274</v>
+        <v>0.043954907996951</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1218036658.439954</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2080067103.372617</v>
+        <v>1593641041.426545</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1202577775887098</v>
+        <v>0.0757171763007882</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04845942991134462</v>
+        <v>0.05136746728540194</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1040033544.947504</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2384791642.562617</v>
+        <v>3111078089.828182</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1359851736046206</v>
+        <v>0.1352389268022322</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04026395090927095</v>
+        <v>0.03850502310294247</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>96</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1192395813.498002</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1875260194.433807</v>
+        <v>2103234471.397911</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1651671034900111</v>
+        <v>0.1648177985791804</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01802457746275003</v>
+        <v>0.0226005395351982</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>33</v>
-      </c>
-      <c r="J86" t="n">
-        <v>937630107.4997836</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1468520276.049995</v>
+        <v>1210226577.596863</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1606854905287725</v>
+        <v>0.1865020453540523</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03521808077322497</v>
+        <v>0.04388665138725465</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>734260262.4361348</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3606255441.583436</v>
+        <v>2991779315.489016</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1565677083421429</v>
+        <v>0.1086335860323028</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03529138676967251</v>
+        <v>0.03020115995685423</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>100</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1803127811.141036</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2921768104.729334</v>
+        <v>3135896130.127283</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1363796553015991</v>
+        <v>0.1544281242911479</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03143131634895008</v>
+        <v>0.03043657728836866</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>86</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1460884096.202271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1949502841.485627</v>
+        <v>1713204273.009236</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1293332949623632</v>
+        <v>0.08867896855868494</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03864946843379683</v>
+        <v>0.05219084760299577</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>974751481.7253258</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1380547987.586958</v>
+        <v>1590661807.215</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1238704732509714</v>
+        <v>0.1833843444888655</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04983920570858466</v>
+        <v>0.06160297034685138</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>690274048.6302946</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2045701284.070211</v>
+        <v>1884370352.265269</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09362080403573574</v>
+        <v>0.0800883968097376</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04310477834229376</v>
+        <v>0.03795021459068976</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>64</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1022850591.667734</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4393146239.349443</v>
+        <v>4341276892.321917</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1240216832447648</v>
+        <v>0.08935653747157464</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03782513468707165</v>
+        <v>0.03965027455853846</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>81</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2196573094.880034</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1844881958.885171</v>
+        <v>1703617762.107934</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1025475646664487</v>
+        <v>0.15877802937296</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03921268736733744</v>
+        <v>0.04205983074033583</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>922440957.5667293</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3268134622.518164</v>
+        <v>2889698939.041035</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09392672798391836</v>
+        <v>0.1065911961680591</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0481618068836801</v>
+        <v>0.03571924041708695</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>61</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1634067291.503213</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1838151851.033563</v>
+        <v>1952590937.380768</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1211510303251092</v>
+        <v>0.1245994775375175</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03213634769809119</v>
+        <v>0.03505897499566554</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>919075929.7594538</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5166490907.461043</v>
+        <v>4207262557.771712</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1109467924017455</v>
+        <v>0.120615453981946</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02251920397719415</v>
+        <v>0.02396660495496436</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>81</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2583245603.904887</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2767563880.734124</v>
+        <v>3645529618.104014</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1254291095390137</v>
+        <v>0.1107132411604419</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02983795113050294</v>
+        <v>0.02738901264717932</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>67</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1383781909.271877</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2538037673.155752</v>
+        <v>2989764379.577773</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09407732152129722</v>
+        <v>0.09553345793378418</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03273651766650275</v>
+        <v>0.03212289600267169</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>80</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1269018789.097495</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3117263454.948948</v>
+        <v>4590998888.499769</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1577958603702992</v>
+        <v>0.1334111097788491</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02638278240806953</v>
+        <v>0.0247251828014557</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>79</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1558631727.674181</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2960745817.390025</v>
+        <v>2284624631.403421</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1958523693611156</v>
+        <v>0.153806356107342</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0360745916640544</v>
+        <v>0.05542661977920705</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>102</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1480372992.532208</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_254.xlsx
+++ b/output/fit_clients/fit_round_254.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1535173174.406975</v>
+        <v>2330890036.47334</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1107829206339013</v>
+        <v>0.1014927610583564</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03429299574126879</v>
+        <v>0.02970249664497887</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2589339773.969934</v>
+        <v>2382482256.64716</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1637201395714109</v>
+        <v>0.1515546805418551</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03802011362617289</v>
+        <v>0.0476078937324411</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4254440047.180592</v>
+        <v>3915139951.097879</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1263023729838048</v>
+        <v>0.1254050503613325</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03319547314025124</v>
+        <v>0.03231180363958875</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2853843394.159224</v>
+        <v>3647767668.473403</v>
       </c>
       <c r="F5" t="n">
-        <v>0.092318427026746</v>
+        <v>0.09208115831883901</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03441273661939475</v>
+        <v>0.03462795510069454</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2331262211.566626</v>
+        <v>2566643570.200864</v>
       </c>
       <c r="F6" t="n">
-        <v>0.106246632138919</v>
+        <v>0.1037651040086108</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04206159206857576</v>
+        <v>0.03444554051462095</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2578550690.322092</v>
+        <v>2346687958.07479</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0903426566222211</v>
+        <v>0.1011741159180917</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03266776193880718</v>
+        <v>0.04316620664140948</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2873529205.200308</v>
+        <v>2645107499.554862</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1534018630992075</v>
+        <v>0.1361841274308479</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02690531931694353</v>
+        <v>0.03352044776160192</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1554881703.482546</v>
+        <v>1774974581.74751</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1920932728626314</v>
+        <v>0.1773242022708779</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02304624183024586</v>
+        <v>0.02536818960851484</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5111431223.11113</v>
+        <v>5480895313.253441</v>
       </c>
       <c r="F10" t="n">
-        <v>0.175206697703494</v>
+        <v>0.1710140857605901</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03666797815966569</v>
+        <v>0.05072962078341958</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2844978202.040843</v>
+        <v>3212977656.524689</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1530298298081269</v>
+        <v>0.1189010519673707</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03547944994222035</v>
+        <v>0.03569740928989464</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2809992401.690658</v>
+        <v>2756198706.45971</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1828106800832864</v>
+        <v>0.1800712505762878</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03411671546384178</v>
+        <v>0.03827226675293596</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4614316800.082104</v>
+        <v>3362772260.901206</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08829919491814134</v>
+        <v>0.08409541896017397</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02762130329623733</v>
+        <v>0.02958908923009517</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3194361844.164754</v>
+        <v>3894717959.768233</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1337862011104838</v>
+        <v>0.1264796435936388</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03938219734696428</v>
+        <v>0.0321842220042319</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1718133117.429985</v>
+        <v>1481727839.371132</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07119858459323683</v>
+        <v>0.1002155347786071</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04899809772033036</v>
+        <v>0.04542510741489315</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2396009909.628728</v>
+        <v>2285594234.061689</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08523168514963868</v>
+        <v>0.09122875788256618</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03773509966118051</v>
+        <v>0.04188022748671267</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3287574283.87683</v>
+        <v>5173852089.697586</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1461859818281184</v>
+        <v>0.1188751713059698</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04384181401443865</v>
+        <v>0.03940524213456695</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2592691062.467113</v>
+        <v>2769344457.285602</v>
       </c>
       <c r="F18" t="n">
-        <v>0.173792411228568</v>
+        <v>0.1775192390359033</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03415486212091663</v>
+        <v>0.02559345831903338</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>880612436.3875369</v>
+        <v>1343325203.136677</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1423284227007432</v>
+        <v>0.1252294454401952</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02751125483655049</v>
+        <v>0.01801600510258393</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2124013351.637961</v>
+        <v>2573994603.792513</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1415402579484666</v>
+        <v>0.1065616058233862</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02790384613271387</v>
+        <v>0.03061192025701425</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2697056485.052122</v>
+        <v>2412431363.990426</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07581317047111177</v>
+        <v>0.06894438950872958</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04514183527232484</v>
+        <v>0.03655530241240754</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3042205878.575561</v>
+        <v>2777449675.796808</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1011006373220829</v>
+        <v>0.1289815786992249</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04668716614182077</v>
+        <v>0.049515118159772</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1162639364.111853</v>
+        <v>1284464993.48495</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1501508589080563</v>
+        <v>0.132982182022005</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03748920526903845</v>
+        <v>0.04200963416301087</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3940743784.069932</v>
+        <v>4153095597.884419</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1451176952253092</v>
+        <v>0.144300212319754</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03092806139260502</v>
+        <v>0.02592858310329397</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1268770926.83278</v>
+        <v>1025732677.644124</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08463025289873953</v>
+        <v>0.07515303798999209</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01926719943474263</v>
+        <v>0.01973050227710317</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1410099745.727304</v>
+        <v>1001824752.245985</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1138207898715998</v>
+        <v>0.1063570099279519</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02779173044333669</v>
+        <v>0.03148360276645833</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4582238581.389791</v>
+        <v>2973276238.255911</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1179989144224699</v>
+        <v>0.09955601434700866</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02123095369756831</v>
+        <v>0.02477727533010694</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3480229600.511043</v>
+        <v>3025332278.436419</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1464900984566094</v>
+        <v>0.1049538124416435</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03394496155797984</v>
+        <v>0.03376023371613304</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3808692155.430233</v>
+        <v>4437306925.311331</v>
       </c>
       <c r="F29" t="n">
-        <v>0.101928533669527</v>
+        <v>0.1056140162398116</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03998450601938071</v>
+        <v>0.0308998729996721</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2385377685.997643</v>
+        <v>2043486902.501334</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1202211846829037</v>
+        <v>0.1136380977785371</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03409560490520958</v>
+        <v>0.03794220412917534</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1001389110.195164</v>
+        <v>1369127139.397533</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1016880850861075</v>
+        <v>0.09791023758629706</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04709617589974743</v>
+        <v>0.04852411360804232</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1484622607.3643</v>
+        <v>1527391596.773431</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1094694110759566</v>
+        <v>0.07496861856768304</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03322009458015145</v>
+        <v>0.02624820005677293</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1931903977.279474</v>
+        <v>2073517730.063385</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1955215561834178</v>
+        <v>0.1493698249079002</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0417280640007608</v>
+        <v>0.05160699277280542</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1570355603.404085</v>
+        <v>1538014607.168302</v>
       </c>
       <c r="F34" t="n">
-        <v>0.122173723341516</v>
+        <v>0.07494719606504202</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02143362452615183</v>
+        <v>0.01719841435131305</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1080889516.863028</v>
+        <v>950482459.2401773</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07581432364714205</v>
+        <v>0.08913988347355287</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04026294973359434</v>
+        <v>0.02931653292737353</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2834981696.311526</v>
+        <v>3012709562.11929</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1759942492251532</v>
+        <v>0.1787940633922428</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02759976224939484</v>
+        <v>0.01972658472683095</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2538843935.2145</v>
+        <v>2689454812.81233</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08459143095291322</v>
+        <v>0.07324866232840516</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0346959409371283</v>
+        <v>0.03482238233130771</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1356668531.80425</v>
+        <v>1567187602.802999</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08430114505693752</v>
+        <v>0.1199957667452768</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03185935528224094</v>
+        <v>0.03734693516864192</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1810086644.18145</v>
+        <v>2085603112.433375</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1688418793622068</v>
+        <v>0.1535276078685079</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02388799815497091</v>
+        <v>0.02209656412386322</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1240871523.861754</v>
+        <v>1417867269.126566</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1285811316791399</v>
+        <v>0.1168429498964795</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04959047266747133</v>
+        <v>0.037006203424995</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2101914580.101074</v>
+        <v>2271349530.210722</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1616111560318797</v>
+        <v>0.1302318393914935</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03611284820338105</v>
+        <v>0.04259798729951894</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3129347016.628075</v>
+        <v>4080760008.385375</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1000001750239635</v>
+        <v>0.1150135928277254</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03182374641850769</v>
+        <v>0.0366534596895365</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2123473957.159874</v>
+        <v>2024602806.796121</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1564326680035171</v>
+        <v>0.134295708022075</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01808594872061869</v>
+        <v>0.02372377199591889</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1678037601.001352</v>
+        <v>2016627715.186513</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08303752076272473</v>
+        <v>0.09556461101464155</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0257484355154123</v>
+        <v>0.02469486299072075</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2397509809.064785</v>
+        <v>1668263019.057403</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1451076297209802</v>
+        <v>0.1579617506255888</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05071123246718031</v>
+        <v>0.03587466290326815</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,13 +1718,13 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4314060464.706929</v>
+        <v>5698381250.187075</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1493490382268721</v>
+        <v>0.1680678381818397</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04400521981245104</v>
+        <v>0.04270900755594753</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4405003101.013883</v>
+        <v>4099630757.321271</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1445317169029707</v>
+        <v>0.1458808491615249</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05720840960511353</v>
+        <v>0.03655135560254937</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3423104606.196805</v>
+        <v>3723637742.987187</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08075996613678307</v>
+        <v>0.09621224229362381</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03464533278581953</v>
+        <v>0.03154777227037252</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1834099647.939185</v>
+        <v>1618706645.639361</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1589385732691854</v>
+        <v>0.1737288559752843</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04486508714486917</v>
+        <v>0.04271963747952257</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2560968646.300906</v>
+        <v>2692536473.73074</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1603144102410325</v>
+        <v>0.1683741351612092</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03386827920940626</v>
+        <v>0.04757121928371806</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1299321814.559022</v>
+        <v>1308963892.12729</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1241226574529555</v>
+        <v>0.182563679228973</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05447825503816929</v>
+        <v>0.04912949120577203</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5060431015.754128</v>
+        <v>4034843566.817019</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1143038432720067</v>
+        <v>0.09554126729762608</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03727024710859946</v>
+        <v>0.04912632983630483</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2929449616.015821</v>
+        <v>2953512569.102038</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2025123646535136</v>
+        <v>0.1741405776630206</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03419805181512648</v>
+        <v>0.02186570160873824</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3973342591.528364</v>
+        <v>3538946893.828227</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1421488832192761</v>
+        <v>0.1099082340578837</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0449716115881252</v>
+        <v>0.04594843237068629</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4360084571.059411</v>
+        <v>4189851717.462752</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1892358275510918</v>
+        <v>0.212276077326623</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02844169013562334</v>
+        <v>0.03258374553912095</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1437775070.593854</v>
+        <v>1561612999.169209</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1028975280950136</v>
+        <v>0.1581426430837194</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05449818064530379</v>
+        <v>0.0395367254304702</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3000809644.021997</v>
+        <v>3858972633.867102</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1232799123845772</v>
+        <v>0.1455065441304541</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02440940270419172</v>
+        <v>0.01684114415068357</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1313215467.787811</v>
+        <v>1682673181.778667</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1746494341790852</v>
+        <v>0.152731091077783</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03510006701594112</v>
+        <v>0.02860792974668687</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3686293134.205553</v>
+        <v>3814808237.713985</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08866412919157654</v>
+        <v>0.1033465071738294</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04449810041875923</v>
+        <v>0.04018832416587512</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3315551038.072463</v>
+        <v>3362788282.862484</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1948020214068851</v>
+        <v>0.147550542269187</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03349286680400503</v>
+        <v>0.03106980511678361</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3170588659.314753</v>
+        <v>2537392877.281974</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1304939692881706</v>
+        <v>0.1492098985282409</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02004773662924233</v>
+        <v>0.0317408286292933</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1945010086.020319</v>
+        <v>1833650385.01316</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1354321783583239</v>
+        <v>0.1206642937663646</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03120989403063473</v>
+        <v>0.03615763512756884</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4871892503.851008</v>
+        <v>3689077620.355152</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09078511027928542</v>
+        <v>0.09408884442983419</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03768729765263004</v>
+        <v>0.04222589144410411</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4511579366.495667</v>
+        <v>5458233747.600957</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1564030015250799</v>
+        <v>0.1826322465510329</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03365279605852407</v>
+        <v>0.0300625824184053</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3796391007.44815</v>
+        <v>4767595522.615861</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1583775721062194</v>
+        <v>0.1568768505875181</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02709565666552893</v>
+        <v>0.02255078010996844</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5671026114.614562</v>
+        <v>3512832071.889727</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1037509615994525</v>
+        <v>0.1519124181137163</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03096531588685976</v>
+        <v>0.03361630084410764</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3117964531.913122</v>
+        <v>3338676472.411314</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09784244020194463</v>
+        <v>0.07215469570808944</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04158155848267203</v>
+        <v>0.03193105259726826</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,13 +2334,13 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5993068637.714289</v>
+        <v>4149125544.898822</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1534899010856532</v>
+        <v>0.1073859755628147</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04974404175677245</v>
+        <v>0.04884161429928128</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2382484891.350196</v>
+        <v>1909438776.71744</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1393345922110341</v>
+        <v>0.1482712804985372</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03738217301198885</v>
+        <v>0.03732407089107312</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2614869791.826013</v>
+        <v>2758807681.5619</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06919272148239494</v>
+        <v>0.1007113929184717</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04976861072642175</v>
+        <v>0.04010751632037554</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4623325259.163871</v>
+        <v>4145056196.363895</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1451424806291994</v>
+        <v>0.1393327546279414</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02950592881233347</v>
+        <v>0.03112948107833366</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1551207960.170256</v>
+        <v>1533243239.199598</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1057135743769544</v>
+        <v>0.1000927068597393</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05281700648825483</v>
+        <v>0.03496410221247968</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3259260049.509294</v>
+        <v>2659180175.033848</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1041175265640603</v>
+        <v>0.07485103520478308</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04519026473327975</v>
+        <v>0.04350256171276123</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3902273760.182277</v>
+        <v>2747040015.421447</v>
       </c>
       <c r="F74" t="n">
-        <v>0.116986120582879</v>
+        <v>0.1611373201583508</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02887334457088243</v>
+        <v>0.02645885439383574</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2303481607.845912</v>
+        <v>2145970861.414765</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1557402352230345</v>
+        <v>0.1299766603723164</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03381716246956615</v>
+        <v>0.02341798000508652</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3346717605.387195</v>
+        <v>4872175462.850687</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1100299036361086</v>
+        <v>0.1042758394026327</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02568656040542843</v>
+        <v>0.03104600478975569</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1778323101.265226</v>
+        <v>1447900299.065251</v>
       </c>
       <c r="F77" t="n">
-        <v>0.126697754720595</v>
+        <v>0.1494938321038617</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0262460416031932</v>
+        <v>0.02106624413674281</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3903440692.99959</v>
+        <v>4024674707.86225</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0928788376114585</v>
+        <v>0.0864690599257685</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04290621483778471</v>
+        <v>0.0378133723318524</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1420280278.368533</v>
+        <v>1234084237.457672</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1688635969985439</v>
+        <v>0.1616089794755352</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02625933985868801</v>
+        <v>0.03861555916639774</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3608259674.520788</v>
+        <v>4195254113.02894</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08324022382343553</v>
+        <v>0.08489705170343993</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02865141629182773</v>
+        <v>0.03334981637137843</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5125754621.58775</v>
+        <v>3367579712.338388</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09673221144679442</v>
+        <v>0.107426050118247</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03108574981257513</v>
+        <v>0.02600323277362811</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5469453639.477464</v>
+        <v>4209015554.35743</v>
       </c>
       <c r="F82" t="n">
-        <v>0.14492076991348</v>
+        <v>0.2097869714098606</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02068341109282118</v>
+        <v>0.02809513961942881</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2165302773.454859</v>
+        <v>1502552035.287177</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1247184767739529</v>
+        <v>0.1301578584700033</v>
       </c>
       <c r="G83" t="n">
-        <v>0.043954907996951</v>
+        <v>0.04489678263515897</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1593641041.426545</v>
+        <v>2601463378.463341</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0757171763007882</v>
+        <v>0.1175430355766487</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05136746728540194</v>
+        <v>0.03530455866155174</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3111078089.828182</v>
+        <v>2962197138.966938</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1352389268022322</v>
+        <v>0.1378876829548764</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03850502310294247</v>
+        <v>0.04819308261171337</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2103234471.397911</v>
+        <v>2493952363.258972</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1648177985791804</v>
+        <v>0.1649364525222248</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0226005395351982</v>
+        <v>0.02343830774719262</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1210226577.596863</v>
+        <v>1216090552.794181</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1865020453540523</v>
+        <v>0.1285552482871786</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04388665138725465</v>
+        <v>0.02928855070923906</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2991779315.489016</v>
+        <v>2629510323.703376</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1086335860323028</v>
+        <v>0.109623200477697</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03020115995685423</v>
+        <v>0.02419360059481354</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3135896130.127283</v>
+        <v>2531894993.297957</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1544281242911479</v>
+        <v>0.1454446135318626</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03043657728836866</v>
+        <v>0.02752159386853629</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1713204273.009236</v>
+        <v>2144877992.357796</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08867896855868494</v>
+        <v>0.1129544683927785</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05219084760299577</v>
+        <v>0.04887954796084383</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1590661807.215</v>
+        <v>1926178603.671315</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1833843444888655</v>
+        <v>0.1906086032483514</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06160297034685138</v>
+        <v>0.03907176383935893</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1884370352.265269</v>
+        <v>2653738668.492334</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0800883968097376</v>
+        <v>0.07938712952813136</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03795021459068976</v>
+        <v>0.04458735111543063</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4341276892.321917</v>
+        <v>3573370583.458786</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08935653747157464</v>
+        <v>0.1045595770477271</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03965027455853846</v>
+        <v>0.04586055426618872</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1703617762.107934</v>
+        <v>2061666436.762923</v>
       </c>
       <c r="F94" t="n">
-        <v>0.15877802937296</v>
+        <v>0.1032194807770169</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04205983074033583</v>
+        <v>0.03255838259287216</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2889698939.041035</v>
+        <v>2494757921.073102</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1065911961680591</v>
+        <v>0.1092243004409978</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03571924041708695</v>
+        <v>0.0457423703416149</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1952590937.380768</v>
+        <v>2309277299.289718</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1245994775375175</v>
+        <v>0.1326213155016458</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03505897499566554</v>
+        <v>0.03236225966396343</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4207262557.771712</v>
+        <v>3406011295.20957</v>
       </c>
       <c r="F97" t="n">
-        <v>0.120615453981946</v>
+        <v>0.1373599007558996</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02396660495496436</v>
+        <v>0.01874818955620626</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3645529618.104014</v>
+        <v>2958956567.936164</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1107132411604419</v>
+        <v>0.09879766714458064</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02738901264717932</v>
+        <v>0.02135909708110553</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2989764379.577773</v>
+        <v>3331328995.582146</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09553345793378418</v>
+        <v>0.131455627982176</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03212289600267169</v>
+        <v>0.0217417033663162</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4590998888.499769</v>
+        <v>3908337552.146652</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1334111097788491</v>
+        <v>0.1356293694733293</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0247251828014557</v>
+        <v>0.02164258096128206</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2284624631.403421</v>
+        <v>2717058814.27968</v>
       </c>
       <c r="F101" t="n">
-        <v>0.153806356107342</v>
+        <v>0.135499991569576</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05542661977920705</v>
+        <v>0.05019360981121793</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_254.xlsx
+++ b/output/fit_clients/fit_round_254.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2330890036.47334</v>
+        <v>1909140642.310874</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1014927610583564</v>
+        <v>0.06964575662813455</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02970249664497887</v>
+        <v>0.03923713907178585</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2382482256.64716</v>
+        <v>1754428034.106242</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1515546805418551</v>
+        <v>0.1156230594694388</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0476078937324411</v>
+        <v>0.04493671770850981</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3915139951.097879</v>
+        <v>3446861791.407572</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1254050503613325</v>
+        <v>0.1285527958831746</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03231180363958875</v>
+        <v>0.02816147702940267</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>137</v>
+      </c>
+      <c r="J4" t="n">
+        <v>253</v>
+      </c>
+      <c r="K4" t="n">
+        <v>84.50583645757465</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3647767668.473403</v>
+        <v>3215342262.873988</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09208115831883901</v>
+        <v>0.08681221396005423</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03462795510069454</v>
+        <v>0.04758482229331</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>104</v>
+      </c>
+      <c r="J5" t="n">
+        <v>253</v>
+      </c>
+      <c r="K5" t="n">
+        <v>87.05805429817305</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2566643570.200864</v>
+        <v>2613851280.449271</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1037651040086108</v>
+        <v>0.1053931742985484</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03444554051462095</v>
+        <v>0.05339829235482291</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2346687958.07479</v>
+        <v>2566124842.146696</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1011741159180917</v>
+        <v>0.08496861138381004</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04316620664140948</v>
+        <v>0.04964527974471366</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2645107499.554862</v>
+        <v>3297452615.823482</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1361841274308479</v>
+        <v>0.2027356967091074</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03352044776160192</v>
+        <v>0.02828581623925521</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>68</v>
+      </c>
+      <c r="J8" t="n">
+        <v>244</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1774974581.74751</v>
+        <v>1881891308.294102</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1773242022708779</v>
+        <v>0.1991734019718527</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02536818960851484</v>
+        <v>0.03697395062043627</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5480895313.253441</v>
+        <v>5644474625.000023</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1710140857605901</v>
+        <v>0.2121299318318342</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05072962078341958</v>
+        <v>0.05048562318145857</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>230</v>
+      </c>
+      <c r="J10" t="n">
+        <v>254</v>
+      </c>
+      <c r="K10" t="n">
+        <v>104.8294570630905</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3212977656.524689</v>
+        <v>2821965385.876524</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1189010519673707</v>
+        <v>0.1804209481817516</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03569740928989464</v>
+        <v>0.04684703468192277</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>103</v>
+      </c>
+      <c r="J11" t="n">
+        <v>249</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2756198706.45971</v>
+        <v>2755159904.415782</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1800712505762878</v>
+        <v>0.1646963598255994</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03827226675293596</v>
+        <v>0.04441976481087513</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3362772260.901206</v>
+        <v>3650754474.062449</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08409541896017397</v>
+        <v>0.0960703827121413</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02958908923009517</v>
+        <v>0.018930139323539</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>129</v>
+      </c>
+      <c r="J13" t="n">
+        <v>253</v>
+      </c>
+      <c r="K13" t="n">
+        <v>96.98982627842658</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +929,25 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3894717959.768233</v>
+        <v>2615930113.442668</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1264796435936388</v>
+        <v>0.1627482584291064</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0321842220042319</v>
+        <v>0.03899512829291268</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>51</v>
+      </c>
+      <c r="J14" t="n">
+        <v>253</v>
+      </c>
+      <c r="K14" t="n">
+        <v>53.70355015499918</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1481727839.371132</v>
+        <v>1807315102.652969</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1002155347786071</v>
+        <v>0.09544051285776554</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04542510741489315</v>
+        <v>0.04482193789415111</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +1001,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2285594234.061689</v>
+        <v>2228841728.528747</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09122875788256618</v>
+        <v>0.109753453683071</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04188022748671267</v>
+        <v>0.04776041170455826</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1030,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5173852089.697586</v>
+        <v>3216263368.635828</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1188751713059698</v>
+        <v>0.1534088488729373</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03940524213456695</v>
+        <v>0.04922874601649433</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>122</v>
+      </c>
+      <c r="J17" t="n">
+        <v>252</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1071,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2769344457.285602</v>
+        <v>3873931475.141826</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1775192390359033</v>
+        <v>0.1413864196480074</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02559345831903338</v>
+        <v>0.02815974245052153</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>63</v>
+      </c>
+      <c r="J18" t="n">
+        <v>254</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1343325203.136677</v>
+        <v>1337514268.617987</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1252294454401952</v>
+        <v>0.1789886501773727</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01801600510258393</v>
+        <v>0.02030399338819983</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2573994603.792513</v>
+        <v>2592166691.949568</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1065616058233862</v>
+        <v>0.1034400921488806</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03061192025701425</v>
+        <v>0.02516306770197029</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2412431363.990426</v>
+        <v>2468159479.401896</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06894438950872958</v>
+        <v>0.08655268541361197</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03655530241240754</v>
+        <v>0.03444936413426157</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2777449675.796808</v>
+        <v>2470049284.546297</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1289815786992249</v>
+        <v>0.1367478231969469</v>
       </c>
       <c r="G22" t="n">
-        <v>0.049515118159772</v>
+        <v>0.0454487201302026</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>66</v>
+      </c>
+      <c r="J22" t="n">
+        <v>252</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1246,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1284464993.48495</v>
+        <v>1518566522.724583</v>
       </c>
       <c r="F23" t="n">
-        <v>0.132982182022005</v>
+        <v>0.1533468795349951</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04200963416301087</v>
+        <v>0.04604152428988307</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1281,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4153095597.884419</v>
+        <v>2665818812.577248</v>
       </c>
       <c r="F24" t="n">
-        <v>0.144300212319754</v>
+        <v>0.09881819862408803</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02592858310329397</v>
+        <v>0.02340842590647744</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>75</v>
+      </c>
+      <c r="J24" t="n">
+        <v>253</v>
+      </c>
+      <c r="K24" t="n">
+        <v>48.81884227586981</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1025732677.644124</v>
+        <v>1393667559.524594</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07515303798999209</v>
+        <v>0.08629920988092475</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01973050227710317</v>
+        <v>0.02072852067019265</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1001824752.245985</v>
+        <v>1221367514.855135</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1063570099279519</v>
+        <v>0.1200184242208251</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03148360276645833</v>
+        <v>0.02679318547698384</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2973276238.255911</v>
+        <v>3687851087.239757</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09955601434700866</v>
+        <v>0.1368074798320078</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02477727533010694</v>
+        <v>0.02176726783917612</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>103</v>
+      </c>
+      <c r="J27" t="n">
+        <v>253</v>
+      </c>
+      <c r="K27" t="n">
+        <v>87.3760328904866</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3025332278.436419</v>
+        <v>3846496877.885827</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1049538124416435</v>
+        <v>0.09684461954415843</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03376023371613304</v>
+        <v>0.03670054737526786</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>50</v>
+      </c>
+      <c r="J28" t="n">
+        <v>254</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1454,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4437306925.311331</v>
+        <v>5907042731.339586</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1056140162398116</v>
+        <v>0.1182924567973796</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0308998729996721</v>
+        <v>0.03595763888742291</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>242</v>
+      </c>
+      <c r="J29" t="n">
+        <v>254</v>
+      </c>
+      <c r="K29" t="n">
+        <v>108.5527805333603</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2043486902.501334</v>
+        <v>1662448340.111202</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1136380977785371</v>
+        <v>0.1015534711505312</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03794220412917534</v>
+        <v>0.03255263960280162</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1369127139.397533</v>
+        <v>1253031834.952828</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09791023758629706</v>
+        <v>0.06869097052948191</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04852411360804232</v>
+        <v>0.03850948404864467</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1527391596.773431</v>
+        <v>1328243170.088843</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07496861856768304</v>
+        <v>0.1178620649219043</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02624820005677293</v>
+        <v>0.028596999226196</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2073517730.063385</v>
+        <v>2810607057.494563</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1493698249079002</v>
+        <v>0.1607375852704292</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05160699277280542</v>
+        <v>0.04716798414432844</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1538014607.168302</v>
+        <v>1536177454.601011</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07494719606504202</v>
+        <v>0.08279273860420512</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01719841435131305</v>
+        <v>0.02188152748427685</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>950482459.2401773</v>
+        <v>1293214123.275357</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08913988347355287</v>
+        <v>0.07155219243428391</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02931653292737353</v>
+        <v>0.02756620251503371</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3012709562.11929</v>
+        <v>2704976378.064302</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1787940633922428</v>
+        <v>0.1590289288426956</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01972658472683095</v>
+        <v>0.02136072541800627</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2689454812.81233</v>
+        <v>2804561497.913839</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07324866232840516</v>
+        <v>0.08011959257334811</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03482238233130771</v>
+        <v>0.02647868295458346</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1567187602.802999</v>
+        <v>1751939695.580383</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1199957667452768</v>
+        <v>0.07601932341682553</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03734693516864192</v>
+        <v>0.03716297850968495</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2085603112.433375</v>
+        <v>1448577851.262917</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1535276078685079</v>
+        <v>0.1255286125368724</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02209656412386322</v>
+        <v>0.02038145149394883</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1847,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1417867269.126566</v>
+        <v>1660841347.692096</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1168429498964795</v>
+        <v>0.1575506667122841</v>
       </c>
       <c r="G40" t="n">
-        <v>0.037006203424995</v>
+        <v>0.04784581036892861</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1882,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2271349530.210722</v>
+        <v>2092186605.872286</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1302318393914935</v>
+        <v>0.1111882973866698</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04259798729951894</v>
+        <v>0.04572554500968444</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1911,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4080760008.385375</v>
+        <v>4151568616.34484</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1150135928277254</v>
+        <v>0.08738732450670035</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0366534596895365</v>
+        <v>0.04471691753669037</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>105</v>
+      </c>
+      <c r="J42" t="n">
+        <v>254</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2024602806.796121</v>
+        <v>2999940864.233294</v>
       </c>
       <c r="F43" t="n">
-        <v>0.134295708022075</v>
+        <v>0.1725725320595678</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02372377199591889</v>
+        <v>0.01797316465410965</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2016627715.186513</v>
+        <v>1725390413.699091</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09556461101464155</v>
+        <v>0.07933510886761133</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02469486299072075</v>
+        <v>0.02886261626341604</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2022,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1668263019.057403</v>
+        <v>2474084324.900469</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1579617506255888</v>
+        <v>0.1942358447164169</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03587466290326815</v>
+        <v>0.03898345667440377</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2051,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5698381250.187075</v>
+        <v>4218512131.264041</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1680678381818397</v>
+        <v>0.1709652164245054</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04270900755594753</v>
+        <v>0.03738015738889716</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>146</v>
+      </c>
+      <c r="J46" t="n">
+        <v>254</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,17 +2092,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4099630757.321271</v>
+        <v>4175228217.73754</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1458808491615249</v>
+        <v>0.1371678869505622</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03655135560254937</v>
+        <v>0.05408313331489112</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>114</v>
+      </c>
+      <c r="J47" t="n">
+        <v>254</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3723637742.987187</v>
+        <v>2845918306.704444</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09621224229362381</v>
+        <v>0.0725344675095021</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03154777227037252</v>
+        <v>0.02897886204762623</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>126</v>
+      </c>
+      <c r="J48" t="n">
+        <v>252</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1618706645.639361</v>
+        <v>1267440371.575377</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1737288559752843</v>
+        <v>0.1344558536533786</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04271963747952257</v>
+        <v>0.03095720482141475</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2692536473.73074</v>
+        <v>3472054063.340392</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1683741351612092</v>
+        <v>0.1378836511608978</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04757121928371806</v>
+        <v>0.03615435894525303</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>82</v>
+      </c>
+      <c r="J50" t="n">
+        <v>254</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1308963892.12729</v>
+        <v>1436343733.627108</v>
       </c>
       <c r="F51" t="n">
-        <v>0.182563679228973</v>
+        <v>0.1271136835819117</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04912949120577203</v>
+        <v>0.04742873551155777</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2267,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4034843566.817019</v>
+        <v>5062764281.16811</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09554126729762608</v>
+        <v>0.104649876560309</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04912632983630483</v>
+        <v>0.05007728917299077</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>163</v>
+      </c>
+      <c r="J52" t="n">
+        <v>253</v>
+      </c>
+      <c r="K52" t="n">
+        <v>99.5344889544254</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2953512569.102038</v>
+        <v>2950602100.73964</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1741405776630206</v>
+        <v>0.1308509647856369</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02186570160873824</v>
+        <v>0.02777924569825422</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>34</v>
+      </c>
+      <c r="J53" t="n">
+        <v>250</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2339,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3538946893.828227</v>
+        <v>4189054872.337788</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1099082340578837</v>
+        <v>0.1620810335310927</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04594843237068629</v>
+        <v>0.05235290411358107</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>134</v>
+      </c>
+      <c r="J54" t="n">
+        <v>253</v>
+      </c>
+      <c r="K54" t="n">
+        <v>100.6628070223196</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4189851717.462752</v>
+        <v>4621078528.466496</v>
       </c>
       <c r="F55" t="n">
-        <v>0.212276077326623</v>
+        <v>0.1492238382918533</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03258374553912095</v>
+        <v>0.02675551368876538</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>113</v>
+      </c>
+      <c r="J55" t="n">
+        <v>254</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1561612999.169209</v>
+        <v>1638703568.98472</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1581426430837194</v>
+        <v>0.1295496171634895</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0395367254304702</v>
+        <v>0.03952020502395537</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3858972633.867102</v>
+        <v>4225376337.759382</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1455065441304541</v>
+        <v>0.1124097477492016</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01684114415068357</v>
+        <v>0.02133472469538657</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>101</v>
+      </c>
+      <c r="J57" t="n">
+        <v>253</v>
+      </c>
+      <c r="K57" t="n">
+        <v>101.4386156576757</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2483,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1682673181.778667</v>
+        <v>1786009769.229423</v>
       </c>
       <c r="F58" t="n">
-        <v>0.152731091077783</v>
+        <v>0.1468896675752167</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02860792974668687</v>
+        <v>0.03433846368711798</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3814808237.713985</v>
+        <v>4176146607.692617</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1033465071738294</v>
+        <v>0.1140241070492207</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04018832416587512</v>
+        <v>0.04723122504599997</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>122</v>
+      </c>
+      <c r="J59" t="n">
+        <v>254</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3362788282.862484</v>
+        <v>3302319573.870132</v>
       </c>
       <c r="F60" t="n">
-        <v>0.147550542269187</v>
+        <v>0.1944524220700757</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03106980511678361</v>
+        <v>0.02997276512444317</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>37</v>
+      </c>
+      <c r="J60" t="n">
+        <v>248</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2537392877.281974</v>
+        <v>2758319677.802435</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1492098985282409</v>
+        <v>0.1426101444079718</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0317408286292933</v>
+        <v>0.02594309674241488</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>7</v>
+      </c>
+      <c r="J61" t="n">
+        <v>249</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1833650385.01316</v>
+        <v>1666268378.329169</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1206642937663646</v>
+        <v>0.1540316038534213</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03615763512756884</v>
+        <v>0.04907464902575068</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3689077620.355152</v>
+        <v>3387177425.135637</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09408884442983419</v>
+        <v>0.0959605577072519</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04222589144410411</v>
+        <v>0.04259601780128187</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>124</v>
+      </c>
+      <c r="J63" t="n">
+        <v>253</v>
+      </c>
+      <c r="K63" t="n">
+        <v>78.63250449970782</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5458233747.600957</v>
+        <v>4862210528.150635</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1826322465510329</v>
+        <v>0.1295797079999605</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0300625824184053</v>
+        <v>0.03448262811270666</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>125</v>
+      </c>
+      <c r="J64" t="n">
+        <v>253</v>
+      </c>
+      <c r="K64" t="n">
+        <v>98.10706719501427</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4767595522.615861</v>
+        <v>5267698117.595381</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1568768505875181</v>
+        <v>0.1650966717798096</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02255078010996844</v>
+        <v>0.02836699517158511</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>203</v>
+      </c>
+      <c r="J65" t="n">
+        <v>254</v>
+      </c>
+      <c r="K65" t="n">
+        <v>102.6017560283197</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3512832071.889727</v>
+        <v>4232531235.836671</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1519124181137163</v>
+        <v>0.1181139803100919</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03361630084410764</v>
+        <v>0.04488424883897485</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>125</v>
+      </c>
+      <c r="J66" t="n">
+        <v>254</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2804,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3338676472.411314</v>
+        <v>3233854430.774906</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07215469570808944</v>
+        <v>0.06462560943833875</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03193105259726826</v>
+        <v>0.04053681897033509</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>6</v>
+      </c>
+      <c r="J67" t="n">
+        <v>243</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4149125544.898822</v>
+        <v>5227781279.278074</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1073859755628147</v>
+        <v>0.1321650138907821</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04884161429928128</v>
+        <v>0.03908767951154662</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>129</v>
+      </c>
+      <c r="J68" t="n">
+        <v>254</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1909438776.71744</v>
+        <v>2428364151.230152</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1482712804985372</v>
+        <v>0.1266930867204815</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03732407089107312</v>
+        <v>0.03932965251331997</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2758807681.5619</v>
+        <v>3206288652.771595</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1007113929184717</v>
+        <v>0.09821443856963478</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04010751632037554</v>
+        <v>0.04218533016234907</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>39</v>
+      </c>
+      <c r="J70" t="n">
+        <v>243</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4145056196.363895</v>
+        <v>5545749939.452212</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1393327546279414</v>
+        <v>0.1646793668862722</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03112948107833366</v>
+        <v>0.03346777467942263</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>192</v>
+      </c>
+      <c r="J71" t="n">
+        <v>254</v>
+      </c>
+      <c r="K71" t="n">
+        <v>102.5391212001007</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1533243239.199598</v>
+        <v>1508378430.590634</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1000927068597393</v>
+        <v>0.0676153585352003</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03496410221247968</v>
+        <v>0.03991684306426821</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3016,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2659180175.033848</v>
+        <v>3110960519.428638</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07485103520478308</v>
+        <v>0.09506566007624681</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04350256171276123</v>
+        <v>0.03434361628162997</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>16</v>
+      </c>
+      <c r="J73" t="n">
+        <v>252</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2747040015.421447</v>
+        <v>3311652594.429651</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1611373201583508</v>
+        <v>0.1375345672506111</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02645885439383574</v>
+        <v>0.02248790833208842</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>72</v>
+      </c>
+      <c r="J74" t="n">
+        <v>254</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2145970861.414765</v>
+        <v>1924885332.79669</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1299766603723164</v>
+        <v>0.1221495154131835</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02341798000508652</v>
+        <v>0.02363469346561797</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4872175462.850687</v>
+        <v>4834490363.219858</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1042758394026327</v>
+        <v>0.1162421248217334</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03104600478975569</v>
+        <v>0.02624080541899518</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>118</v>
+      </c>
+      <c r="J76" t="n">
+        <v>254</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1447900299.065251</v>
+        <v>2049945619.634169</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1494938321038617</v>
+        <v>0.1820057291666941</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02106624413674281</v>
+        <v>0.02376697415521562</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3191,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4024674707.86225</v>
+        <v>3365066821.227063</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0864690599257685</v>
+        <v>0.08891962022587907</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0378133723318524</v>
+        <v>0.05379863922112523</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>127</v>
+      </c>
+      <c r="J78" t="n">
+        <v>253</v>
+      </c>
+      <c r="K78" t="n">
+        <v>82.48913313073784</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1234084237.457672</v>
+        <v>1579313343.576314</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1616089794755352</v>
+        <v>0.1572920199114549</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03861555916639774</v>
+        <v>0.03336475745682298</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4195254113.02894</v>
+        <v>5559747713.771339</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08489705170343993</v>
+        <v>0.07758566628728017</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03334981637137843</v>
+        <v>0.03282394317519825</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>124</v>
+      </c>
+      <c r="J80" t="n">
+        <v>253</v>
+      </c>
+      <c r="K80" t="n">
+        <v>74.3506670634288</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3367579712.338388</v>
+        <v>3668414412.045492</v>
       </c>
       <c r="F81" t="n">
-        <v>0.107426050118247</v>
+        <v>0.1294362247702625</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02600323277362811</v>
+        <v>0.03261409307720738</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>116</v>
+      </c>
+      <c r="J81" t="n">
+        <v>253</v>
+      </c>
+      <c r="K81" t="n">
+        <v>83.80994294555008</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4209015554.35743</v>
+        <v>4744602040.22195</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2097869714098606</v>
+        <v>0.1794765036340078</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02809513961942881</v>
+        <v>0.02211336366098176</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>192</v>
+      </c>
+      <c r="J82" t="n">
+        <v>254</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1502552035.287177</v>
+        <v>1765028754.761914</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1301578584700033</v>
+        <v>0.1394066760465849</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04489678263515897</v>
+        <v>0.03380797518688579</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2601463378.463341</v>
+        <v>1945765571.531695</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1175430355766487</v>
+        <v>0.09388194084890022</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03530455866155174</v>
+        <v>0.04959551593640631</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3442,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2962197138.966938</v>
+        <v>3026729479.672033</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1378876829548764</v>
+        <v>0.1138761500665755</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04819308261171337</v>
+        <v>0.03920360527043364</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>36</v>
+      </c>
+      <c r="J85" t="n">
+        <v>251</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2493952363.258972</v>
+        <v>2646504311.164441</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1649364525222248</v>
+        <v>0.1597563026545155</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02343830774719262</v>
+        <v>0.0262258322025594</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1216090552.794181</v>
+        <v>1137771757.782566</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1285552482871786</v>
+        <v>0.152856855223581</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02928855070923906</v>
+        <v>0.03743333392264749</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2629510323.703376</v>
+        <v>2738819743.035756</v>
       </c>
       <c r="F88" t="n">
-        <v>0.109623200477697</v>
+        <v>0.1424863958321791</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02419360059481354</v>
+        <v>0.03957644805857052</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>37</v>
+      </c>
+      <c r="J88" t="n">
+        <v>251</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2531894993.297957</v>
+        <v>3062797614.025427</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1454446135318626</v>
+        <v>0.1392607869886484</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02752159386853629</v>
+        <v>0.03844335574822185</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>19</v>
+      </c>
+      <c r="J89" t="n">
+        <v>248</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2144877992.357796</v>
+        <v>1583684190.261505</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1129544683927785</v>
+        <v>0.09780669350015489</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04887954796084383</v>
+        <v>0.05210629639712963</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1926178603.671315</v>
+        <v>1922822957.296818</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1906086032483514</v>
+        <v>0.1299571405015983</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03907176383935893</v>
+        <v>0.04607262623998792</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2653738668.492334</v>
+        <v>2484238813.115834</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07938712952813136</v>
+        <v>0.1095016697669978</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04458735111543063</v>
+        <v>0.03305376990571666</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3573370583.458786</v>
+        <v>4278330803.304585</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1045595770477271</v>
+        <v>0.127654707275782</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04586055426618872</v>
+        <v>0.03995913564411519</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>112</v>
+      </c>
+      <c r="J93" t="n">
+        <v>254</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2061666436.762923</v>
+        <v>1558795704.235864</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1032194807770169</v>
+        <v>0.1236921132142414</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03255838259287216</v>
+        <v>0.03672946227627916</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2494757921.073102</v>
+        <v>2171362854.320842</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1092243004409978</v>
+        <v>0.104393809929261</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0457423703416149</v>
+        <v>0.04655208604368372</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2309277299.289718</v>
+        <v>2231276693.319906</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1326213155016458</v>
+        <v>0.1128501376565645</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03236225966396343</v>
+        <v>0.03669797518324439</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3406011295.20957</v>
+        <v>4387141031.432201</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1373599007558996</v>
+        <v>0.1419526581289142</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01874818955620626</v>
+        <v>0.02119598483200739</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>124</v>
+      </c>
+      <c r="J97" t="n">
+        <v>254</v>
+      </c>
+      <c r="K97" t="n">
+        <v>102.5536505482953</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2958956567.936164</v>
+        <v>3738569984.925774</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09879766714458064</v>
+        <v>0.119286855986697</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02135909708110553</v>
+        <v>0.02762466576616641</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>62</v>
+      </c>
+      <c r="J98" t="n">
+        <v>253</v>
+      </c>
+      <c r="K98" t="n">
+        <v>94.65231650921262</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3331328995.582146</v>
+        <v>3197405699.218943</v>
       </c>
       <c r="F99" t="n">
-        <v>0.131455627982176</v>
+        <v>0.109469673710464</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0217417033663162</v>
+        <v>0.02449869836443933</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>4</v>
+      </c>
+      <c r="J99" t="n">
+        <v>252</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3908337552.146652</v>
+        <v>4324262158.375901</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1356293694733293</v>
+        <v>0.1299804203607655</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02164258096128206</v>
+        <v>0.01835212906375204</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>106</v>
+      </c>
+      <c r="J100" t="n">
+        <v>254</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2717058814.27968</v>
+        <v>3012843175.284499</v>
       </c>
       <c r="F101" t="n">
-        <v>0.135499991569576</v>
+        <v>0.1870334204000285</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05019360981121793</v>
+        <v>0.05796527178232794</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>19</v>
+      </c>
+      <c r="J101" t="n">
+        <v>251</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
